--- a/Typical task/Январь/test_1_3.xlsx
+++ b/Typical task/Январь/test_1_3.xlsx
@@ -461,139 +461,139 @@
     <row r="2">
       <c r="C2" t="inlineStr">
         <is>
-          <t>Стоимость проезда в автобусе составляет 10 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 194 руб., если цена проезда снизится на 50%?</t>
+          <t>Стоимость проезда в автобусе составляет 20 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 261 руб., если цена проезда снизится на 50%?</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>261</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
-          <t>Стоимость билета в театр составляет 600 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 1141 руб., если цена посещения снизится на 15%?</t>
+          <t>Стоимость билета в театр составляет 970 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 18526 руб., если цена посещения снизится на 50%?</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>970</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>18526</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>
-          <t>Стоимость билета в кино составляет 780 руб. Какое наибольшее число посещений можно будет совершить на это кино на 3885 руб., если цена посещения снизится на 30%?</t>
+          <t>Стоимость билета в кино составляет 710 руб. Какое наибольшее число посещений можно будет совершить на это кино на 22776 руб., если цена посещения снизится на 10%?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>710</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3885</t>
+          <t>22776</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>Стоимость билета на выставку составляет 420 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 11015 руб., если цена посещения снизится на 45%?</t>
+          <t>Стоимость билета на выставку составляет 430 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 1779 руб., если цена посещения снизится на 30%?</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>430</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11015</t>
+          <t>1779</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>Стоимость билета в музей составляет 100 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 2580 руб., если цена посещения снизится на 45%?</t>
+          <t>Стоимость билета в музей составляет 50 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 224 руб., если цена посещения снизится на 30%?</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>224</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутном такси составляет 90 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 401 руб., если цена проезда снизится на 50%?</t>
+          <t>Стоимость проезда в маршрутном такси составляет 110 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 1714 руб., если цена проезда снизится на 50%?</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>110</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>1714</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутке составляет 40 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 432 руб., если цена проезда снизится на 30%?</t>
+          <t>Стоимость проезда в маршрутке составляет 60 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 472 руб., если цена проезда снизится на 50%?</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -603,178 +603,178 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>472</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>Стоимость проезда в автобусе составляет 70 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 1602 руб., если цена проезда снизится на 50%?</t>
+          <t>Стоимость проезда в автобусе составляет 50 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 142 руб., если цена проезда снизится на 20%?</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>142</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>Стоимость билета в театр составляет 540 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 4086 руб., если цена посещения повысится на 20%?</t>
+          <t>Стоимость билета в театр составляет 860 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 47583 руб., если цена посещения повысится на 45%?</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>860</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4086</t>
+          <t>47583</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>Стоимость билета в кино составляет 830 руб. Какое наибольшее число посещений можно будет совершить на это кино на 53963 руб., если цена посещения повысится на 30%?</t>
+          <t>Стоимость билета в кино составляет 770 руб. Какое наибольшее число посещений можно будет совершить на это кино на 35753 руб., если цена посещения повысится на 10%?</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>770</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>53963</t>
+          <t>35753</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>Стоимость билета на выставку составляет 380 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 11210 руб., если цена посещения повысится на 40%?</t>
+          <t>Стоимость билета на выставку составляет 240 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 9850 руб., если цена посещения повысится на 35%?</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>240</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11210</t>
+          <t>9850</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>Стоимость билета в музей составляет 80 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 753 руб., если цена посещения повысится на 15%?</t>
+          <t>Стоимость билета в музей составляет 90 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 3643 руб., если цена посещения повысится на 30%?</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>3643</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутном такси составляет 60 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 2058 руб., если цена проезда повысится на 5%?</t>
+          <t>Стоимость проезда в маршрутном такси составляет 110 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 1238 руб., если цена проезда повысится на 40%?</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>110</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2058</t>
+          <t>1238</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутке составляет 60 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 3056 руб., если цена проезда повысится на 15%?</t>
+          <t>Стоимость проезда в маршрутке составляет 50 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 405 руб., если цена проезда повысится на 6%?</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>405</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>Стоимость проезда в автобусе составляет 20 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 278 руб., если цена проезда повысится на 25%?</t>
+          <t>Стоимость проезда в автобусе составляет 20 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 369 руб., если цена проезда повысится на 30%?</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -784,129 +784,129 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>369</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>Стоимость билета в театр составляет 590 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 22380 руб., если цена посещения повысится на 30%?</t>
+          <t>Стоимость билета в театр составляет 880 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 15202 руб., если цена посещения повысится на 10%?</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>880</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22380</t>
+          <t>15202</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>Стоимость билета в кино составляет 670 руб. Какое наибольшее число посещений можно будет совершить на это кино на 34347 руб., если цена посещения повысится на 30%?</t>
+          <t>Стоимость билета в кино составляет 820 руб. Какое наибольшее число посещений можно будет совершить на это кино на 14727 руб., если цена посещения повысится на 35%?</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>820</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>34347</t>
+          <t>14727</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>Стоимость билета на выставку составляет 250 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 16576 руб., если цена посещения повысится на 50%?</t>
+          <t>Стоимость билета на выставку составляет 400 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 18699 руб., если цена посещения повысится на 15%?</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>400</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16576</t>
+          <t>18699</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>Стоимость билета в музей составляет 100 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 2684 руб., если цена посещения снизится на 40%?</t>
+          <t>Стоимость билета в музей составляет 50 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 638 руб., если цена посещения снизится на 10%?</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2684</t>
+          <t>638</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутном такси составляет 70 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 1583 руб., если цена проезда снизится на 40%?</t>
+          <t>Стоимость проезда в маршрутном такси составляет 80 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 2183 руб., если цена проезда снизится на 5%?</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>2183</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутке составляет 50 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 1287 руб., если цена проезда снизится на 20%?</t>
+          <t>Стоимость проезда в маршрутке составляет 50 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 360 руб., если цена проезда снизится на 50%?</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -916,19 +916,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>360</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>Стоимость проезда в автобусе составляет 60 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 250 руб., если цена проезда снизится на 20%?</t>
+          <t>Стоимость проезда в автобусе составляет 60 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 941 руб., если цена проезда снизится на 15%?</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -938,459 +938,459 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>941</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>Стоимость билета в театр составляет 600 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 15457 руб., если цена посещения снизится на 10%?</t>
+          <t>Стоимость билета в театр составляет 1080 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 2960 руб., если цена посещения снизится на 35%?</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15457</t>
+          <t>2960</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>Стоимость билета в кино составляет 810 руб. Какое наибольшее число посещений можно будет совершить на это кино на 3944 руб., если цена посещения снизится на 50%?</t>
+          <t>Стоимость билета в кино составляет 880 руб. Какое наибольшее число посещений можно будет совершить на это кино на 27443 руб., если цена посещения снизится на 35%?</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>880</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3944</t>
+          <t>27443</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>Стоимость билета на выставку составляет 230 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 1639 руб., если цена посещения снизится на 20%?</t>
+          <t>Стоимость билета на выставку составляет 420 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 6812 руб., если цена посещения снизится на 50%?</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>420</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>6812</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
-          <t>Стоимость билета в музей составляет 110 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 3074 руб., если цена посещения снизится на 30%?</t>
+          <t>Стоимость билета в музей составляет 120 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 1960 руб., если цена посещения снизится на 5%?</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>120</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3074</t>
+          <t>1960</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутном такси составляет 50 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 1717 руб., если цена проезда снизится на 30%?</t>
+          <t>Стоимость проезда в маршрутном такси составляет 100 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 2080 руб., если цена проезда снизится на 15%?</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>2080</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутке составляет 100 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 2033 руб., если цена проезда снизится на 45%?</t>
+          <t>Стоимость проезда в маршрутке составляет 40 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 734 руб., если цена проезда снизится на 45%?</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2033</t>
+          <t>734</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="inlineStr">
         <is>
-          <t>Стоимость проезда в автобусе составляет 20 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 801 руб., если цена проезда повысится на 20%?</t>
+          <t>Стоимость проезда в автобусе составляет 30 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 733 руб., если цена проезда повысится на 50%?</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>733</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>Стоимость билета в театр составляет 1150 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 47069 руб., если цена посещения повысится на 20%?</t>
+          <t>Стоимость билета в театр составляет 840 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 20201 руб., если цена посещения повысится на 20%?</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>840</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>47069</t>
+          <t>20201</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="inlineStr">
         <is>
-          <t>Стоимость билета в кино составляет 400 руб. Какое наибольшее число посещений можно будет совершить на это кино на 3044 руб., если цена посещения повысится на 15%?</t>
+          <t>Стоимость билета в кино составляет 700 руб. Какое наибольшее число посещений можно будет совершить на это кино на 23592 руб., если цена посещения повысится на 10%?</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>700</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3044</t>
+          <t>23592</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>Стоимость билета на выставку составляет 440 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 11023 руб., если цена посещения повысится на 30%?</t>
+          <t>Стоимость билета на выставку составляет 500 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 21480 руб., если цена посещения повысится на 30%?</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>500</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>11023</t>
+          <t>21480</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="C34" t="inlineStr">
         <is>
-          <t>Стоимость билета в музей составляет 60 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 1594 руб., если цена посещения повысится на 45%?</t>
+          <t>Стоимость билета в музей составляет 80 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 711 руб., если цена посещения повысится на 45%?</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1594</t>
+          <t>711</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="C35" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутном такси составляет 110 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 1603 руб., если цена проезда повысится на 10%?</t>
+          <t>Стоимость проезда в маршрутном такси составляет 80 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 3570 руб., если цена проезда повысится на 20%?</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>3570</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="C36" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутке составляет 100 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 5496 руб., если цена проезда повысится на 40%?</t>
+          <t>Стоимость проезда в маршрутке составляет 90 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 5294 руб., если цена проезда повысится на 20%?</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>5294</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="C37" t="inlineStr">
         <is>
-          <t>Стоимость проезда в автобусе составляет 30 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 712 руб., если цена проезда повысится на 30%?</t>
+          <t>Стоимость проезда в автобусе составляет 10 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 48 руб., если цена проезда повысится на 50%?</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>48</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="C38" t="inlineStr">
         <is>
-          <t>Стоимость билета в театр составляет 760 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 40258 руб., если цена посещения повысится на 20%?</t>
+          <t>Стоимость билета в театр составляет 1020 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 28398 руб., если цена посещения повысится на 10%?</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>40258</t>
+          <t>28398</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="C39" t="inlineStr">
         <is>
-          <t>Стоимость билета в кино составляет 520 руб. Какое наибольшее число посещений можно будет совершить на это кино на 36677 руб., если цена посещения повысится на 40%?</t>
+          <t>Стоимость билета в кино составляет 320 руб. Какое наибольшее число посещений можно будет совершить на это кино на 6413 руб., если цена посещения повысится на 10%?</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>320</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>36677</t>
+          <t>6413</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="C40" t="inlineStr">
         <is>
-          <t>Стоимость билета на выставку составляет 340 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 12237 руб., если цена посещения снизится на 10%?</t>
+          <t>Стоимость билета на выставку составляет 490 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 10322 руб., если цена посещения снизится на 10%?</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>490</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12237</t>
+          <t>10322</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="C41" t="inlineStr">
         <is>
-          <t>Стоимость билета в музей составляет 100 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 3853 руб., если цена посещения снизится на 15%?</t>
+          <t>Стоимость билета в музей составляет 70 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 946 руб., если цена посещения снизится на 50%?</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>946</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="C42" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутном такси составляет 80 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 1717 руб., если цена проезда снизится на 25%?</t>
+          <t>Стоимость проезда в маршрутном такси составляет 90 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 1353 руб., если цена проезда снизится на 50%?</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>1353</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="C43" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутке составляет 70 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 376 руб., если цена проезда снизится на 10%?</t>
+          <t>Стоимость проезда в маршрутке составляет 20 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 651 руб., если цена проезда снизится на 20%?</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>651</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="C44" t="inlineStr">
         <is>
-          <t>Стоимость проезда в автобусе составляет 60 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 2372 руб., если цена проезда снизится на 20%?</t>
+          <t>Стоимость проезда в автобусе составляет 60 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 1255 руб., если цена проезда снизится на 35%?</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1400,63 +1400,63 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2372</t>
+          <t>1255</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="C45" t="inlineStr">
         <is>
-          <t>Стоимость билета в театр составляет 610 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 4379 руб., если цена посещения снизится на 50%?</t>
+          <t>Стоимость билета в театр составляет 570 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 791 руб., если цена посещения снизится на 50%?</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>570</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4379</t>
+          <t>791</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="C46" t="inlineStr">
         <is>
-          <t>Стоимость билета в кино составляет 560 руб. Какое наибольшее число посещений можно будет совершить на это кино на 18479 руб., если цена посещения снизится на 15%?</t>
+          <t>Стоимость билета в кино составляет 350 руб. Какое наибольшее число посещений можно будет совершить на это кино на 12240 руб., если цена посещения снизится на 22%?</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>350</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>18479</t>
+          <t>12240</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="C47" t="inlineStr">
         <is>
-          <t>Стоимость билета на выставку составляет 310 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 10115 руб., если цена посещения снизится на 20%?</t>
+          <t>Стоимость билета на выставку составляет 310 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 3993 руб., если цена посещения снизится на 10%?</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1466,36 +1466,36 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10115</t>
+          <t>3993</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="C48" t="inlineStr">
         <is>
-          <t>Стоимость билета в музей составляет 110 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 1170 руб., если цена посещения снизится на 50%?</t>
+          <t>Стоимость билета в музей составляет 120 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 409 руб., если цена посещения снизится на 40%?</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>120</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>409</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="C49" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутном такси составляет 120 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 417 руб., если цена проезда снизится на 45%?</t>
+          <t>Стоимость проезда в маршрутном такси составляет 100 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 378 руб., если цена проезда снизится на 45%?</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1505,129 +1505,129 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>378</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="C50" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутке составляет 60 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 3145 руб., если цена проезда повысится на 15%?</t>
+          <t>Стоимость проезда в маршрутке составляет 20 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 581 руб., если цена проезда повысится на 25%?</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>581</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="C51" t="inlineStr">
         <is>
-          <t>Стоимость проезда в автобусе составляет 20 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 1478 руб., если цена проезда повысится на 50%?</t>
+          <t>Стоимость проезда в автобусе составляет 40 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 235 руб., если цена проезда повысится на 35%?</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1478</t>
+          <t>235</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="C52" t="inlineStr">
         <is>
-          <t>Стоимость билета в театр составляет 880 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 45407 руб., если цена посещения повысится на 35%?</t>
+          <t>Стоимость билета в театр составляет 1010 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 34512 руб., если цена посещения повысится на 10%?</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>45407</t>
+          <t>34512</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="C53" t="inlineStr">
         <is>
-          <t>Стоимость билета в кино составляет 750 руб. Какое наибольшее число посещений можно будет совершить на это кино на 21416 руб., если цена посещения повысится на 50%?</t>
+          <t>Стоимость билета в кино составляет 460 руб. Какое наибольшее число посещений можно будет совершить на это кино на 23815 руб., если цена посещения повысится на 5%?</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>460</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21416</t>
+          <t>23815</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="C54" t="inlineStr">
         <is>
-          <t>Стоимость билета на выставку составляет 320 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 18478 руб., если цена посещения повысится на 40%?</t>
+          <t>Стоимость билета на выставку составляет 400 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 3270 руб., если цена посещения повысится на 25%?</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>400</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18478</t>
+          <t>3270</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="C55" t="inlineStr">
         <is>
-          <t>Стоимость билета в музей составляет 70 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 4612 руб., если цена посещения повысится на 40%?</t>
+          <t>Стоимость билета в музей составляет 100 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 5250 руб., если цена посещения повысится на 10%?</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1637,156 +1637,156 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>4612</t>
+          <t>5250</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="C56" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутном такси составляет 80 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 5534 руб., если цена проезда повысится на 40%?</t>
+          <t>Стоимость проезда в маршрутном такси составляет 120 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 453 руб., если цена проезда повысится на 25%?</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>5534</t>
+          <t>453</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="C57" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутке составляет 80 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 4106 руб., если цена проезда повысится на 35%?</t>
+          <t>Стоимость проезда в маршрутке составляет 20 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 758 руб., если цена проезда повысится на 20%?</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>4106</t>
+          <t>758</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="C58" t="inlineStr">
         <is>
-          <t>Стоимость проезда в автобусе составляет 50 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 865 руб., если цена проезда повысится на 42%?</t>
+          <t>Стоимость проезда в автобусе составляет 60 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 3859 руб., если цена проезда повысится на 45%?</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>3859</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="C59" t="inlineStr">
         <is>
-          <t>Стоимость билета в театр составляет 860 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 43522 руб., если цена посещения повысится на 20%?</t>
+          <t>Стоимость билета в театр составляет 670 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 10060 руб., если цена посещения повысится на 50%?</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>670</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>43522</t>
+          <t>10060</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="C60" t="inlineStr">
         <is>
-          <t>Стоимость билета в кино составляет 940 руб. Какое наибольшее число посещений можно будет совершить на это кино на 15544 руб., если цена посещения снизится на 15%?</t>
+          <t>Стоимость билета в кино составляет 1000 руб. Какое наибольшее число посещений можно будет совершить на это кино на 20115 руб., если цена посещения снизится на 15%?</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>15544</t>
+          <t>20115</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="C61" t="inlineStr">
         <is>
-          <t>Стоимость билета на выставку составляет 250 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 3852 руб., если цена посещения снизится на 30%?</t>
+          <t>Стоимость билета на выставку составляет 460 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 13839 руб., если цена посещения снизится на 5%?</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>460</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>3852</t>
+          <t>13839</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="C62" t="inlineStr">
         <is>
-          <t>Стоимость билета в музей составляет 60 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 524 руб., если цена посещения снизится на 40%?</t>
+          <t>Стоимость билета в музей составляет 60 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 1157 руб., если цена посещения снизится на 10%?</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -1796,173 +1796,173 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>1157</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="C63" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутном такси составляет 80 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 1419 руб., если цена проезда снизится на 25%?</t>
+          <t>Стоимость проезда в маршрутном такси составляет 50 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 173 руб., если цена проезда снизится на 36%?</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>173</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="C64" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутке составляет 70 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 550 руб., если цена проезда снизится на 40%?</t>
+          <t>Стоимость проезда в маршрутке составляет 30 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 177 руб., если цена проезда снизится на 30%?</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>177</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="C65" t="inlineStr">
         <is>
-          <t>Стоимость проезда в автобусе составляет 50 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 1179 руб., если цена проезда снизится на 42%?</t>
+          <t>Стоимость проезда в автобусе составляет 60 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 247 руб., если цена проезда снизится на 20%?</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>247</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="C66" t="inlineStr">
         <is>
-          <t>Стоимость билета в театр составляет 980 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 7928 руб., если цена посещения снизится на 30%?</t>
+          <t>Стоимость билета в театр составляет 730 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 9892 руб., если цена посещения снизится на 30%?</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>730</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>7928</t>
+          <t>9892</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="C67" t="inlineStr">
         <is>
-          <t>Стоимость билета в кино составляет 720 руб. Какое наибольшее число посещений можно будет совершить на это кино на 3691 руб., если цена посещения снизится на 20%?</t>
+          <t>Стоимость билета в кино составляет 620 руб. Какое наибольшее число посещений можно будет совершить на это кино на 27810 руб., если цена посещения снизится на 10%?</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>620</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3691</t>
+          <t>27810</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="C68" t="inlineStr">
         <is>
-          <t>Стоимость билета на выставку составляет 340 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 686 руб., если цена посещения снизится на 5%?</t>
+          <t>Стоимость билета на выставку составляет 380 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 9772 руб., если цена посещения снизится на 40%?</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>380</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>9772</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="C69" t="inlineStr">
         <is>
-          <t>Стоимость билета в музей составляет 90 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 896 руб., если цена посещения снизится на 40%?</t>
+          <t>Стоимость билета в музей составляет 80 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 2230 руб., если цена посещения снизится на 30%?</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>2230</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="C70" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутном такси составляет 80 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 4213 руб., если цена проезда повысится на 45%?</t>
+          <t>Стоимость проезда в маршрутном такси составляет 80 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 3981 руб., если цена проезда повысится на 20%?</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -1972,85 +1972,85 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>4213</t>
+          <t>3981</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="C71" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутке составляет 40 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 1475 руб., если цена проезда повысится на 40%?</t>
+          <t>Стоимость проезда в маршрутке составляет 30 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 1367 руб., если цена проезда повысится на 10%?</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>1367</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="C72" t="inlineStr">
         <is>
-          <t>Стоимость проезда в автобусе составляет 70 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 3481 руб., если цена проезда повысится на 10%?</t>
+          <t>Стоимость проезда в автобусе составляет 50 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 2800 руб., если цена проезда повысится на 30%?</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>3481</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="C73" t="inlineStr">
         <is>
-          <t>Стоимость билета в театр составляет 760 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 35537 руб., если цена посещения повысится на 50%?</t>
+          <t>Стоимость билета в театр составляет 880 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 18209 руб., если цена посещения повысится на 35%?</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>880</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>35537</t>
+          <t>18209</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="C74" t="inlineStr">
         <is>
-          <t>Стоимость билета в кино составляет 900 руб. Какое наибольшее число посещений можно будет совершить на это кино на 13669 руб., если цена посещения повысится на 15%?</t>
+          <t>Стоимость билета в кино составляет 900 руб. Какое наибольшее число посещений можно будет совершить на это кино на 48753 руб., если цена посещения повысится на 35%?</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2060,256 +2060,256 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>13669</t>
+          <t>48753</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="C75" t="inlineStr">
         <is>
-          <t>Стоимость билета на выставку составляет 250 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 15787 руб., если цена посещения повысится на 40%?</t>
+          <t>Стоимость билета на выставку составляет 380 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 11525 руб., если цена посещения повысится на 35%?</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>380</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>15787</t>
+          <t>11525</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="C76" t="inlineStr">
         <is>
-          <t>Стоимость билета в музей составляет 100 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 429 руб., если цена посещения повысится на 40%?</t>
+          <t>Стоимость билета в музей составляет 90 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 1150 руб., если цена посещения повысится на 20%?</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>1150</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="C77" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутном такси составляет 70 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 4052 руб., если цена проезда повысится на 20%?</t>
+          <t>Стоимость проезда в маршрутном такси составляет 100 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 2045 руб., если цена проезда повысится на 10%?</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>4052</t>
+          <t>2045</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="C78" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутке составляет 100 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 5822 руб., если цена проезда повысится на 45%?</t>
+          <t>Стоимость проезда в маршрутке составляет 50 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 3695 руб., если цена проезда повысится на 50%?</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>5822</t>
+          <t>3695</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="C79" t="inlineStr">
         <is>
-          <t>Стоимость проезда в автобусе составляет 20 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 730 руб., если цена проезда повысится на 45%?</t>
+          <t>Стоимость проезда в автобусе составляет 40 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 2259 руб., если цена проезда повысится на 25%?</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>2259</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="C80" t="inlineStr">
         <is>
-          <t>Стоимость билета в театр составляет 790 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 22784 руб., если цена посещения снизится на 10%?</t>
+          <t>Стоимость билета в театр составляет 1040 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 22658 руб., если цена посещения снизится на 20%?</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>1040</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>22784</t>
+          <t>22658</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="C81" t="inlineStr">
         <is>
-          <t>Стоимость билета в кино составляет 810 руб. Какое наибольшее число посещений можно будет совершить на это кино на 19303 руб., если цена посещения снизится на 20%?</t>
+          <t>Стоимость билета в кино составляет 990 руб. Какое наибольшее число посещений можно будет совершить на это кино на 7907 руб., если цена посещения снизится на 20%?</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>990</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>19303</t>
+          <t>7907</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="C82" t="inlineStr">
         <is>
-          <t>Стоимость билета на выставку составляет 200 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 2998 руб., если цена посещения снизится на 45%?</t>
+          <t>Стоимость билета на выставку составляет 480 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 6796 руб., если цена посещения снизится на 45%?</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>480</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>6796</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="C83" t="inlineStr">
         <is>
-          <t>Стоимость билета в музей составляет 100 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 2379 руб., если цена посещения снизится на 20%?</t>
+          <t>Стоимость билета в музей составляет 60 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 2070 руб., если цена посещения снизится на 15%?</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2070</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="C84" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутном такси составляет 80 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 1097 руб., если цена проезда снизится на 25%?</t>
+          <t>Стоимость проезда в маршрутном такси составляет 90 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 1148 руб., если цена проезда снизится на 50%?</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>1148</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="C85" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутке составляет 70 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 155 руб., если цена проезда снизится на 50%?</t>
+          <t>Стоимость проезда в маршрутке составляет 90 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 1020 руб., если цена проезда снизится на 50%?</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>1020</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="C86" t="inlineStr">
         <is>
-          <t>Стоимость проезда в автобусе составляет 10 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 227 руб., если цена проезда снизится на 50%?</t>
+          <t>Стоимость проезда в автобусе составляет 20 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 642 руб., если цена проезда снизится на 30%?</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2319,342 +2319,342 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>642</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="C87" t="inlineStr">
         <is>
-          <t>Стоимость билета в театр составляет 510 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 3582 руб., если цена посещения снизится на 50%?</t>
+          <t>Стоимость билета в театр составляет 820 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 4436 руб., если цена посещения снизится на 50%?</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>820</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>3582</t>
+          <t>4436</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="C88" t="inlineStr">
         <is>
-          <t>Стоимость билета в кино составляет 750 руб. Какое наибольшее число посещений можно будет совершить на это кино на 13753 руб., если цена посещения снизится на 32%?</t>
+          <t>Стоимость билета в кино составляет 570 руб. Какое наибольшее число посещений можно будет совершить на это кино на 2172 руб., если цена посещения снизится на 30%?</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>570</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>13753</t>
+          <t>2172</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="C89" t="inlineStr">
         <is>
-          <t>Стоимость билета на выставку составляет 450 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 19649 руб., если цена посещения снизится на 8%?</t>
+          <t>Стоимость билета на выставку составляет 470 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 6768 руб., если цена посещения снизится на 20%?</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>470</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>19649</t>
+          <t>6768</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="C90" t="inlineStr">
         <is>
-          <t>Стоимость билета в музей составляет 70 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 4432 руб., если цена посещения повысится на 50%?</t>
+          <t>Стоимость билета в музей составляет 100 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 2923 руб., если цена посещения повысится на 25%?</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>4432</t>
+          <t>2923</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="C91" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутном такси составляет 80 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 1271 руб., если цена проезда повысится на 20%?</t>
+          <t>Стоимость проезда в маршрутном такси составляет 90 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 3687 руб., если цена проезда повысится на 10%?</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>3687</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="C92" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутке составляет 40 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 1469 руб., если цена проезда повысится на 20%?</t>
+          <t>Стоимость проезда в маршрутке составляет 50 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 2010 руб., если цена проезда повысится на 48%?</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="C93" t="inlineStr">
         <is>
-          <t>Стоимость проезда в автобусе составляет 30 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 1415 руб., если цена проезда повысится на 30%?</t>
+          <t>Стоимость проезда в автобусе составляет 10 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 436 руб., если цена проезда повысится на 30%?</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1415</t>
+          <t>436</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="C94" t="inlineStr">
         <is>
-          <t>Стоимость билета в театр составляет 950 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 42565 руб., если цена посещения повысится на 44%?</t>
+          <t>Стоимость билета в театр составляет 1070 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 30031 руб., если цена посещения повысится на 10%?</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>42565</t>
+          <t>30031</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="C95" t="inlineStr">
         <is>
-          <t>Стоимость билета в кино составляет 490 руб. Какое наибольшее число посещений можно будет совершить на это кино на 4414 руб., если цена посещения повысится на 10%?</t>
+          <t>Стоимость билета в кино составляет 720 руб. Какое наибольшее число посещений можно будет совершить на это кино на 7104 руб., если цена посещения повысится на 35%?</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>720</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>7104</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="C96" t="inlineStr">
         <is>
-          <t>Стоимость билета на выставку составляет 280 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 18166 руб., если цена посещения повысится на 50%?</t>
+          <t>Стоимость билета на выставку составляет 230 руб. Какое наибольшее число посещений можно будет совершить на эту выставку на 5398 руб., если цена посещения повысится на 30%?</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>230</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>18166</t>
+          <t>5398</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="C97" t="inlineStr">
         <is>
-          <t>Стоимость билета в музей составляет 70 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 1128 руб., если цена посещения повысится на 20%?</t>
+          <t>Стоимость билета в музей составляет 120 руб. Какое наибольшее число посещений можно будет совершить в этот музей на 2489 руб., если цена посещения повысится на 35%?</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>120</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>2489</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="C98" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутном такси составляет 110 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 4139 руб., если цена проезда повысится на 50%?</t>
+          <t>Стоимость проезда в маршрутном такси составляет 120 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутном такси на 8672 руб., если цена проезда повысится на 50%?</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>120</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>4139</t>
+          <t>8672</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="C99" t="inlineStr">
         <is>
-          <t>Стоимость проезда в маршрутке составляет 100 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 4744 руб., если цена проезда повысится на 10%?</t>
+          <t>Стоимость проезда в маршрутке составляет 40 руб. Какое наибольшее число поездок можно будет совершить в этом маршрутке на 2222 руб., если цена проезда повысится на 45%?</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>4744</t>
+          <t>2222</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="C100" t="inlineStr">
         <is>
-          <t>Стоимость проезда в автобусе составляет 20 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 359 руб., если цена проезда снизится на 15%?</t>
+          <t>Стоимость проезда в автобусе составляет 70 руб. Какое наибольшее число поездок можно будет совершить в этом автобусе на 714 руб., если цена проезда снизится на 20%?</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>714</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="C101" t="inlineStr">
         <is>
-          <t>Стоимость билета в театр составляет 730 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 22993 руб., если цена посещения снизится на 10%?</t>
+          <t>Стоимость билета в театр составляет 970 руб. Какое наибольшее число посещений можно будет совершить в этот театре на 25514 руб., если цена посещения снизится на 40%?</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>970</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>22993</t>
+          <t>25514</t>
         </is>
       </c>
     </row>
